--- a/data/pca/factorExposure/factorExposure_2015-11-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01497067493093968</v>
+        <v>0.01284526572297457</v>
       </c>
       <c r="C2">
-        <v>-0.02854609571892638</v>
+        <v>0.03532344888340667</v>
       </c>
       <c r="D2">
-        <v>0.09585384867804253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1283127837449587</v>
+      </c>
+      <c r="E2">
+        <v>0.06576539686931204</v>
+      </c>
+      <c r="F2">
+        <v>0.02546350891153168</v>
+      </c>
+      <c r="G2">
+        <v>0.07983490603873621</v>
+      </c>
+      <c r="H2">
+        <v>-0.07339242833084746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01648910519789235</v>
+        <v>0.009811486403243141</v>
       </c>
       <c r="C3">
-        <v>-0.05779880539220368</v>
+        <v>0.04330542077551194</v>
       </c>
       <c r="D3">
-        <v>0.08967738181704947</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05530243654144059</v>
+      </c>
+      <c r="E3">
+        <v>0.04773200759297814</v>
+      </c>
+      <c r="F3">
+        <v>0.05994068503797774</v>
+      </c>
+      <c r="G3">
+        <v>0.1027004748302436</v>
+      </c>
+      <c r="H3">
+        <v>-0.008395442336276603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05203472808730271</v>
+        <v>0.05244457084883471</v>
       </c>
       <c r="C4">
-        <v>-0.05031419191930529</v>
+        <v>0.06874910028275703</v>
       </c>
       <c r="D4">
-        <v>0.1268314791646278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1477609830900666</v>
+      </c>
+      <c r="E4">
+        <v>0.0526867010194807</v>
+      </c>
+      <c r="F4">
+        <v>0.02375443581267728</v>
+      </c>
+      <c r="G4">
+        <v>-0.04531417265979434</v>
+      </c>
+      <c r="H4">
+        <v>-0.01481505658325809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04065831667396756</v>
+        <v>0.03888481563106336</v>
       </c>
       <c r="C6">
-        <v>-0.01646221215450078</v>
+        <v>0.02942214067399168</v>
       </c>
       <c r="D6">
-        <v>0.1392492498762823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1398645930484808</v>
+      </c>
+      <c r="E6">
+        <v>0.02762683189433354</v>
+      </c>
+      <c r="F6">
+        <v>0.01479407700688101</v>
+      </c>
+      <c r="G6">
+        <v>0.006293465743343845</v>
+      </c>
+      <c r="H6">
+        <v>-0.0494047139463648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01883330632273343</v>
+        <v>0.01341363608407685</v>
       </c>
       <c r="C7">
-        <v>-0.02149615003477206</v>
+        <v>0.033572205389132</v>
       </c>
       <c r="D7">
-        <v>0.1015037589418952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09644200372629724</v>
+      </c>
+      <c r="E7">
+        <v>0.0203706283862492</v>
+      </c>
+      <c r="F7">
+        <v>0.01998244804939554</v>
+      </c>
+      <c r="G7">
+        <v>0.01832954550030011</v>
+      </c>
+      <c r="H7">
+        <v>-0.07166606463132247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008639294504349712</v>
+        <v>0.00620010949147218</v>
       </c>
       <c r="C8">
-        <v>-0.02721659634328</v>
+        <v>0.03775287813228051</v>
       </c>
       <c r="D8">
-        <v>0.06214872946802705</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07974883407055548</v>
+      </c>
+      <c r="E8">
+        <v>0.03151505598601169</v>
+      </c>
+      <c r="F8">
+        <v>0.04392645818326441</v>
+      </c>
+      <c r="G8">
+        <v>0.01972903106273477</v>
+      </c>
+      <c r="H8">
+        <v>-0.03427264800043631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04309016922295719</v>
+        <v>0.04149158870315973</v>
       </c>
       <c r="C9">
-        <v>-0.04718706476860931</v>
+        <v>0.06392465883769137</v>
       </c>
       <c r="D9">
-        <v>0.1099576002967539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1222270261289795</v>
+      </c>
+      <c r="E9">
+        <v>0.03913768332523432</v>
+      </c>
+      <c r="F9">
+        <v>0.004643153713939526</v>
+      </c>
+      <c r="G9">
+        <v>-0.02697267544409019</v>
+      </c>
+      <c r="H9">
+        <v>-0.0178826500665641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.10404402816587</v>
+        <v>0.1450087934057944</v>
       </c>
       <c r="C10">
-        <v>0.186846609818803</v>
+        <v>-0.1884658302163066</v>
       </c>
       <c r="D10">
-        <v>-0.003084466689660621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.006266894860157703</v>
+      </c>
+      <c r="E10">
+        <v>0.04695939611381191</v>
+      </c>
+      <c r="F10">
+        <v>0.0297806833221025</v>
+      </c>
+      <c r="G10">
+        <v>-0.02822826032835817</v>
+      </c>
+      <c r="H10">
+        <v>0.02930609789036204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03157514105495424</v>
+        <v>0.02792905992116108</v>
       </c>
       <c r="C11">
-        <v>-0.03819705648604019</v>
+        <v>0.04445326939298826</v>
       </c>
       <c r="D11">
-        <v>0.05750137495174652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05770558339715106</v>
+      </c>
+      <c r="E11">
+        <v>-0.007253706151634176</v>
+      </c>
+      <c r="F11">
+        <v>0.0009561544484301344</v>
+      </c>
+      <c r="G11">
+        <v>0.006928818817713487</v>
+      </c>
+      <c r="H11">
+        <v>-0.03047827257302692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03815316682301276</v>
+        <v>0.0331408678955352</v>
       </c>
       <c r="C12">
-        <v>-0.03901860698964894</v>
+        <v>0.04622022147395768</v>
       </c>
       <c r="D12">
-        <v>0.06182395676273513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05773444633597303</v>
+      </c>
+      <c r="E12">
+        <v>-0.0004440505775963574</v>
+      </c>
+      <c r="F12">
+        <v>-0.008157649469043862</v>
+      </c>
+      <c r="G12">
+        <v>0.01158179437008424</v>
+      </c>
+      <c r="H12">
+        <v>-0.02641350376547659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0149726872065575</v>
+        <v>0.01668168148456355</v>
       </c>
       <c r="C13">
-        <v>-0.03271817602545254</v>
+        <v>0.04128837843070855</v>
       </c>
       <c r="D13">
-        <v>0.1307580065105586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1498946494435159</v>
+      </c>
+      <c r="E13">
+        <v>0.03364885875633776</v>
+      </c>
+      <c r="F13">
+        <v>0.03775494118184685</v>
+      </c>
+      <c r="G13">
+        <v>0.02244995643033123</v>
+      </c>
+      <c r="H13">
+        <v>-0.06520559262555962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005498161552666768</v>
+        <v>0.006944092105677624</v>
       </c>
       <c r="C14">
-        <v>-0.0160560079009161</v>
+        <v>0.02345355930587751</v>
       </c>
       <c r="D14">
-        <v>0.08405488529588032</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09111887159801789</v>
+      </c>
+      <c r="E14">
+        <v>0.03287015668455335</v>
+      </c>
+      <c r="F14">
+        <v>-0.000216053993059787</v>
+      </c>
+      <c r="G14">
+        <v>0.02368209332720865</v>
+      </c>
+      <c r="H14">
+        <v>-0.08738415376912047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002118220257258642</v>
+        <v>0.00127139538972788</v>
       </c>
       <c r="C15">
-        <v>-0.001732774431542876</v>
+        <v>0.01176950302661283</v>
       </c>
       <c r="D15">
-        <v>0.002538223775813023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03553088113562665</v>
+      </c>
+      <c r="E15">
+        <v>0.007724295845943716</v>
+      </c>
+      <c r="F15">
+        <v>-0.001138700948821993</v>
+      </c>
+      <c r="G15">
+        <v>0.0087933656449415</v>
+      </c>
+      <c r="H15">
+        <v>-0.01764206488765981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03146253589606298</v>
+        <v>0.02852328463941308</v>
       </c>
       <c r="C16">
-        <v>-0.04023371737219315</v>
+        <v>0.04451498926449074</v>
       </c>
       <c r="D16">
-        <v>0.0678837958565822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06391824667766133</v>
+      </c>
+      <c r="E16">
+        <v>0.004880106685086317</v>
+      </c>
+      <c r="F16">
+        <v>-0.007957703651156865</v>
+      </c>
+      <c r="G16">
+        <v>0.007799714224118972</v>
+      </c>
+      <c r="H16">
+        <v>-0.04374773153400086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008307800332167584</v>
+        <v>0.005856098659088508</v>
       </c>
       <c r="C19">
-        <v>-0.02666506932019866</v>
+        <v>0.02263988570245461</v>
       </c>
       <c r="D19">
-        <v>0.1550026629257693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1184530759718884</v>
+      </c>
+      <c r="E19">
+        <v>0.05786188380908393</v>
+      </c>
+      <c r="F19">
+        <v>-0.00395673832658067</v>
+      </c>
+      <c r="G19">
+        <v>0.03585828170220288</v>
+      </c>
+      <c r="H19">
+        <v>-0.03321448756372114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01485571563507988</v>
+        <v>0.01515276124915372</v>
       </c>
       <c r="C20">
-        <v>-0.02707313362684359</v>
+        <v>0.03398652823469337</v>
       </c>
       <c r="D20">
-        <v>0.08501274735150309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1012669940324324</v>
+      </c>
+      <c r="E20">
+        <v>0.04945849940031129</v>
+      </c>
+      <c r="F20">
+        <v>0.001620806500473488</v>
+      </c>
+      <c r="G20">
+        <v>0.007158711218081748</v>
+      </c>
+      <c r="H20">
+        <v>-0.05116668806001445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00809179671791074</v>
+        <v>0.009342362197914962</v>
       </c>
       <c r="C21">
-        <v>-0.02842647258106939</v>
+        <v>0.03884736335070332</v>
       </c>
       <c r="D21">
-        <v>0.1281479883857601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1393540494457958</v>
+      </c>
+      <c r="E21">
+        <v>0.0787587984005893</v>
+      </c>
+      <c r="F21">
+        <v>0.00474239212044782</v>
+      </c>
+      <c r="G21">
+        <v>-0.004882095202139459</v>
+      </c>
+      <c r="H21">
+        <v>-0.06159583280513935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006120595992709366</v>
+        <v>0.005287438656906058</v>
       </c>
       <c r="C22">
-        <v>-0.02829528232605437</v>
+        <v>0.04217100817279392</v>
       </c>
       <c r="D22">
-        <v>0.09947046968428148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1556955235938339</v>
+      </c>
+      <c r="E22">
+        <v>0.025995317207699</v>
+      </c>
+      <c r="F22">
+        <v>0.08834995718741805</v>
+      </c>
+      <c r="G22">
+        <v>0.05980162983282184</v>
+      </c>
+      <c r="H22">
+        <v>-0.01220564699908242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006236960303862194</v>
+        <v>0.00538478950594792</v>
       </c>
       <c r="C23">
-        <v>-0.02825885008942048</v>
+        <v>0.04264473716497108</v>
       </c>
       <c r="D23">
-        <v>0.09875768817115885</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1551235442954833</v>
+      </c>
+      <c r="E23">
+        <v>0.02628482583226016</v>
+      </c>
+      <c r="F23">
+        <v>0.08832506281705226</v>
+      </c>
+      <c r="G23">
+        <v>0.05886267702053179</v>
+      </c>
+      <c r="H23">
+        <v>-0.01197892794804986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03521196537963331</v>
+        <v>0.03043912522540544</v>
       </c>
       <c r="C24">
-        <v>-0.04868410077543199</v>
+        <v>0.05627483737753406</v>
       </c>
       <c r="D24">
-        <v>0.0669618123124797</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06719827488083362</v>
+      </c>
+      <c r="E24">
+        <v>0.01125883672817257</v>
+      </c>
+      <c r="F24">
+        <v>-0.00413426390750483</v>
+      </c>
+      <c r="G24">
+        <v>0.002589707732982118</v>
+      </c>
+      <c r="H24">
+        <v>-0.04830044158895684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03842778137772605</v>
+        <v>0.03441572530634914</v>
       </c>
       <c r="C25">
-        <v>-0.04808724635787878</v>
+        <v>0.0537191940905446</v>
       </c>
       <c r="D25">
-        <v>0.06588205851652509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06279493242806768</v>
+      </c>
+      <c r="E25">
+        <v>0.01167462961626425</v>
+      </c>
+      <c r="F25">
+        <v>0.0009680000802924124</v>
+      </c>
+      <c r="G25">
+        <v>0.004342733916227007</v>
+      </c>
+      <c r="H25">
+        <v>-0.0216327761470275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01795714867490365</v>
+        <v>0.01803796293506062</v>
       </c>
       <c r="C26">
-        <v>-0.006919510963068127</v>
+        <v>0.01716994832356101</v>
       </c>
       <c r="D26">
-        <v>0.05554019806459512</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06464380123905762</v>
+      </c>
+      <c r="E26">
+        <v>0.02239347622343682</v>
+      </c>
+      <c r="F26">
+        <v>0.006894655864242407</v>
+      </c>
+      <c r="G26">
+        <v>0.01130324574978449</v>
+      </c>
+      <c r="H26">
+        <v>-0.05835668838080876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1536865992160438</v>
+        <v>0.2048601759801299</v>
       </c>
       <c r="C28">
-        <v>0.2610603735606912</v>
+        <v>-0.2506878250934452</v>
       </c>
       <c r="D28">
-        <v>-0.03267618114293578</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01215780342088649</v>
+      </c>
+      <c r="E28">
+        <v>0.07677700197645061</v>
+      </c>
+      <c r="F28">
+        <v>0.00951960581482492</v>
+      </c>
+      <c r="G28">
+        <v>-0.05442947305501371</v>
+      </c>
+      <c r="H28">
+        <v>0.02683036809067476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003757433447789681</v>
+        <v>0.004821345950565407</v>
       </c>
       <c r="C29">
-        <v>-0.01545975082184392</v>
+        <v>0.02213428906277004</v>
       </c>
       <c r="D29">
-        <v>0.06830068463924385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.08810787571887861</v>
+      </c>
+      <c r="E29">
+        <v>0.02875102761305256</v>
+      </c>
+      <c r="F29">
+        <v>0.01411306070122783</v>
+      </c>
+      <c r="G29">
+        <v>0.005590694999771181</v>
+      </c>
+      <c r="H29">
+        <v>-0.09050935279057593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03550512900041772</v>
+        <v>0.04027303229021592</v>
       </c>
       <c r="C30">
-        <v>-0.03398173766454982</v>
+        <v>0.0598161709893747</v>
       </c>
       <c r="D30">
-        <v>0.1647382054276144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1793387744813668</v>
+      </c>
+      <c r="E30">
+        <v>0.01938142992177293</v>
+      </c>
+      <c r="F30">
+        <v>0.01546426137868748</v>
+      </c>
+      <c r="G30">
+        <v>0.01403244752079784</v>
+      </c>
+      <c r="H30">
+        <v>-0.07493026601224009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06377432259759318</v>
+        <v>0.0530759348444855</v>
       </c>
       <c r="C31">
-        <v>-0.05437068026802249</v>
+        <v>0.07426053605694846</v>
       </c>
       <c r="D31">
-        <v>0.06688492427539258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05241811229770407</v>
+      </c>
+      <c r="E31">
+        <v>0.02687378416889277</v>
+      </c>
+      <c r="F31">
+        <v>0.03155610727384849</v>
+      </c>
+      <c r="G31">
+        <v>-0.009711607928286521</v>
+      </c>
+      <c r="H31">
+        <v>-0.01992674627423073</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.002536312890915722</v>
+        <v>0.01192959757794255</v>
       </c>
       <c r="C32">
-        <v>-0.01927927750089466</v>
+        <v>0.01753720987599769</v>
       </c>
       <c r="D32">
-        <v>0.06594642249342146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1093349298392323</v>
+      </c>
+      <c r="E32">
+        <v>0.09357217584562089</v>
+      </c>
+      <c r="F32">
+        <v>0.01803905500871972</v>
+      </c>
+      <c r="G32">
+        <v>-0.003981078514597385</v>
+      </c>
+      <c r="H32">
+        <v>-0.04349427454586227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02301642418775019</v>
+        <v>0.02349211652554484</v>
       </c>
       <c r="C33">
-        <v>-0.02889502699813649</v>
+        <v>0.04240976737961395</v>
       </c>
       <c r="D33">
-        <v>0.1327322699890407</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1340251999047345</v>
+      </c>
+      <c r="E33">
+        <v>0.03997719578856709</v>
+      </c>
+      <c r="F33">
+        <v>0.01606882545499902</v>
+      </c>
+      <c r="G33">
+        <v>0.01655544598151457</v>
+      </c>
+      <c r="H33">
+        <v>-0.05335078097119678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0322961100034716</v>
+        <v>0.0263241737619206</v>
       </c>
       <c r="C34">
-        <v>-0.06135387210244614</v>
+        <v>0.06152776795552044</v>
       </c>
       <c r="D34">
-        <v>0.06919412005206815</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05518156699962676</v>
+      </c>
+      <c r="E34">
+        <v>-0.006507237167694774</v>
+      </c>
+      <c r="F34">
+        <v>-0.01052542584140354</v>
+      </c>
+      <c r="G34">
+        <v>0.01436766507615269</v>
+      </c>
+      <c r="H34">
+        <v>-0.03531055453389784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0008623164280143784</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.001041045932822035</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.005820248252951415</v>
+      </c>
+      <c r="E35">
+        <v>0.001293774820970739</v>
+      </c>
+      <c r="F35">
+        <v>0.0006956059538869491</v>
+      </c>
+      <c r="G35">
+        <v>0.001071699378823288</v>
+      </c>
+      <c r="H35">
+        <v>-0.002762254266856759</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01973569648675527</v>
+        <v>0.01903321102140468</v>
       </c>
       <c r="C36">
-        <v>-0.002265781918775257</v>
+        <v>0.01409495364865473</v>
       </c>
       <c r="D36">
-        <v>0.07318537049236389</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07796806793035883</v>
+      </c>
+      <c r="E36">
+        <v>0.02866345224599875</v>
+      </c>
+      <c r="F36">
+        <v>0.004836111920410664</v>
+      </c>
+      <c r="G36">
+        <v>-0.003083560778740053</v>
+      </c>
+      <c r="H36">
+        <v>-0.04795472205580525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01937101841906139</v>
+        <v>0.02012183209846956</v>
       </c>
       <c r="C38">
-        <v>-0.01528460046299687</v>
+        <v>0.01953099159651531</v>
       </c>
       <c r="D38">
-        <v>0.05665495493423938</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06365755715276616</v>
+      </c>
+      <c r="E38">
+        <v>0.03363641881165366</v>
+      </c>
+      <c r="F38">
+        <v>-0.005552239957790451</v>
+      </c>
+      <c r="G38">
+        <v>0.04126243574406031</v>
+      </c>
+      <c r="H38">
+        <v>-0.02426482773133552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03744461922019388</v>
+        <v>0.03435875097643375</v>
       </c>
       <c r="C39">
-        <v>-0.04898472160980141</v>
+        <v>0.06729762401037377</v>
       </c>
       <c r="D39">
-        <v>0.08884355949981153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1042876017835972</v>
+      </c>
+      <c r="E39">
+        <v>0.005181754217902773</v>
+      </c>
+      <c r="F39">
+        <v>-0.02711894937087759</v>
+      </c>
+      <c r="G39">
+        <v>0.01159577197542855</v>
+      </c>
+      <c r="H39">
+        <v>-0.0803379614294957</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01776335689069967</v>
+        <v>0.01263320372191189</v>
       </c>
       <c r="C40">
-        <v>-0.04104743493943181</v>
+        <v>0.03974459657386781</v>
       </c>
       <c r="D40">
-        <v>0.07204831843610027</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08192441706460307</v>
+      </c>
+      <c r="E40">
+        <v>0.0586014200098053</v>
+      </c>
+      <c r="F40">
+        <v>0.07629579334577802</v>
+      </c>
+      <c r="G40">
+        <v>0.09317966968790717</v>
+      </c>
+      <c r="H40">
+        <v>-0.08236953485026695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02476561789805631</v>
+        <v>0.02341450142254223</v>
       </c>
       <c r="C41">
-        <v>0.001595282848170223</v>
+        <v>0.008509274281618139</v>
       </c>
       <c r="D41">
-        <v>0.0674884051583733</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05677483417931198</v>
+      </c>
+      <c r="E41">
+        <v>0.0522214292057038</v>
+      </c>
+      <c r="F41">
+        <v>0.004468240594362976</v>
+      </c>
+      <c r="G41">
+        <v>0.02296786490335612</v>
+      </c>
+      <c r="H41">
+        <v>-0.02765432185215154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02823283210350304</v>
+        <v>0.02328858536249352</v>
       </c>
       <c r="C43">
-        <v>-0.01025009853190253</v>
+        <v>0.01823285091633834</v>
       </c>
       <c r="D43">
-        <v>0.1059404775602348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0850345940616094</v>
+      </c>
+      <c r="E43">
+        <v>0.02858636513840312</v>
+      </c>
+      <c r="F43">
+        <v>0.005191997200963523</v>
+      </c>
+      <c r="G43">
+        <v>0.02457099603109545</v>
+      </c>
+      <c r="H43">
+        <v>-0.03684087462889713</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01375105627013354</v>
+        <v>0.01621365532800375</v>
       </c>
       <c r="C44">
-        <v>-0.04318467090257489</v>
+        <v>0.04208251903426734</v>
       </c>
       <c r="D44">
-        <v>0.08115027770658406</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1030089162328068</v>
+      </c>
+      <c r="E44">
+        <v>0.0614622867919097</v>
+      </c>
+      <c r="F44">
+        <v>0.01444730250389359</v>
+      </c>
+      <c r="G44">
+        <v>0.01739856830905749</v>
+      </c>
+      <c r="H44">
+        <v>-0.04940663317800772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01523107520759334</v>
+        <v>0.01326433825457462</v>
       </c>
       <c r="C46">
-        <v>-0.0191004002512656</v>
+        <v>0.02944745955852958</v>
       </c>
       <c r="D46">
-        <v>0.0789043392056988</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08573949646367914</v>
+      </c>
+      <c r="E46">
+        <v>0.03312247335685306</v>
+      </c>
+      <c r="F46">
+        <v>-0.01271701721854063</v>
+      </c>
+      <c r="G46">
+        <v>0.0007230114399651205</v>
+      </c>
+      <c r="H46">
+        <v>-0.07269618975165867</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09332241526486053</v>
+        <v>0.08095452233268577</v>
       </c>
       <c r="C47">
-        <v>-0.07537028276370876</v>
+        <v>0.0913162572936263</v>
       </c>
       <c r="D47">
-        <v>0.04660579282147229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03414830789821556</v>
+      </c>
+      <c r="E47">
+        <v>0.03567742370932594</v>
+      </c>
+      <c r="F47">
+        <v>0.01847215417068636</v>
+      </c>
+      <c r="G47">
+        <v>-0.02070408284045367</v>
+      </c>
+      <c r="H47">
+        <v>0.0653427808114834</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01367229722394508</v>
+        <v>0.01595686798797869</v>
       </c>
       <c r="C48">
-        <v>-0.01157043704365106</v>
+        <v>0.01892810912598377</v>
       </c>
       <c r="D48">
-        <v>0.06382834664248183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07330874787791988</v>
+      </c>
+      <c r="E48">
+        <v>0.0485257306367439</v>
+      </c>
+      <c r="F48">
+        <v>0.003729042753162899</v>
+      </c>
+      <c r="G48">
+        <v>0.001357666132005187</v>
+      </c>
+      <c r="H48">
+        <v>-0.05291561544587912</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05895104281052944</v>
+        <v>0.05153531566085283</v>
       </c>
       <c r="C50">
-        <v>-0.05361935074733676</v>
+        <v>0.06714339385823405</v>
       </c>
       <c r="D50">
-        <v>0.06385104354157788</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05481661623195333</v>
+      </c>
+      <c r="E50">
+        <v>0.03955431602016531</v>
+      </c>
+      <c r="F50">
+        <v>0.04055272460276441</v>
+      </c>
+      <c r="G50">
+        <v>0.02768003489952955</v>
+      </c>
+      <c r="H50">
+        <v>-0.009719351918383525</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01007305973620979</v>
+        <v>0.01030981592298091</v>
       </c>
       <c r="C51">
-        <v>-0.01348326961340241</v>
+        <v>0.0194117157700495</v>
       </c>
       <c r="D51">
-        <v>0.07744496131179532</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08928510919490563</v>
+      </c>
+      <c r="E51">
+        <v>0.01423144345336908</v>
+      </c>
+      <c r="F51">
+        <v>0.005582042494783242</v>
+      </c>
+      <c r="G51">
+        <v>0.01973952657466636</v>
+      </c>
+      <c r="H51">
+        <v>-0.08400310322422005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08831814402326044</v>
+        <v>0.08472594560971905</v>
       </c>
       <c r="C53">
-        <v>-0.08602225508754316</v>
+        <v>0.1018427474848331</v>
       </c>
       <c r="D53">
-        <v>0.002478992981553835</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0152071781802998</v>
+      </c>
+      <c r="E53">
+        <v>0.1102594250189984</v>
+      </c>
+      <c r="F53">
+        <v>0.04819787869856145</v>
+      </c>
+      <c r="G53">
+        <v>-0.08017962312980585</v>
+      </c>
+      <c r="H53">
+        <v>0.01117404944666815</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0283331986546479</v>
+        <v>0.02515544674729773</v>
       </c>
       <c r="C54">
-        <v>-0.02553889523353657</v>
+        <v>0.03463496791959508</v>
       </c>
       <c r="D54">
-        <v>0.09161822117413221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08840265035714338</v>
+      </c>
+      <c r="E54">
+        <v>0.03627693254275202</v>
+      </c>
+      <c r="F54">
+        <v>-0.008587476053215517</v>
+      </c>
+      <c r="G54">
+        <v>0.03707432848009398</v>
+      </c>
+      <c r="H54">
+        <v>-0.06508327015461864</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09184215411173827</v>
+        <v>0.08379042397396365</v>
       </c>
       <c r="C55">
-        <v>-0.05937981489199225</v>
+        <v>0.08051688585365016</v>
       </c>
       <c r="D55">
-        <v>-0.01592175541072948</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.007290935433035269</v>
+      </c>
+      <c r="E55">
+        <v>0.05931080939791628</v>
+      </c>
+      <c r="F55">
+        <v>0.0422530819963561</v>
+      </c>
+      <c r="G55">
+        <v>-0.04159988354298502</v>
+      </c>
+      <c r="H55">
+        <v>0.003526861846503008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1381687270619037</v>
+        <v>0.1270412277040623</v>
       </c>
       <c r="C56">
-        <v>-0.09843393825376456</v>
+        <v>0.1272915419023228</v>
       </c>
       <c r="D56">
-        <v>-0.008690417755075114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0108362266069891</v>
+      </c>
+      <c r="E56">
+        <v>0.06272313891979693</v>
+      </c>
+      <c r="F56">
+        <v>0.02979086340515793</v>
+      </c>
+      <c r="G56">
+        <v>-0.03563196836913736</v>
+      </c>
+      <c r="H56">
+        <v>0.05053347824768752</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01511605010247874</v>
+        <v>0.02366677554131857</v>
       </c>
       <c r="C58">
-        <v>0.008230781037408524</v>
+        <v>0.02781397082821676</v>
       </c>
       <c r="D58">
-        <v>0.3072772837792775</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3599082396907048</v>
+      </c>
+      <c r="E58">
+        <v>0.1850723242675788</v>
+      </c>
+      <c r="F58">
+        <v>0.1360457705034138</v>
+      </c>
+      <c r="G58">
+        <v>0.1535168492628406</v>
+      </c>
+      <c r="H58">
+        <v>-0.02159013097915345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1429009783627364</v>
+        <v>0.1806803200604894</v>
       </c>
       <c r="C59">
-        <v>0.1889385197960625</v>
+        <v>-0.167721799976121</v>
       </c>
       <c r="D59">
-        <v>0.03163165734844277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05265791082070316</v>
+      </c>
+      <c r="E59">
+        <v>0.01916047570682701</v>
+      </c>
+      <c r="F59">
+        <v>-0.04280001674897051</v>
+      </c>
+      <c r="G59">
+        <v>-0.001570013018859833</v>
+      </c>
+      <c r="H59">
+        <v>0.01418873277408062</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2460105507874108</v>
+        <v>0.2280671250229935</v>
       </c>
       <c r="C60">
-        <v>-0.06391173022019013</v>
+        <v>0.1042562252335143</v>
       </c>
       <c r="D60">
-        <v>0.2107417461431436</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1199073575450975</v>
+      </c>
+      <c r="E60">
+        <v>-0.3597862636906226</v>
+      </c>
+      <c r="F60">
+        <v>0.01541918430764936</v>
+      </c>
+      <c r="G60">
+        <v>-0.05457027237366005</v>
+      </c>
+      <c r="H60">
+        <v>0.1035683003799401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04384050753547509</v>
+        <v>0.03930887379481878</v>
       </c>
       <c r="C61">
-        <v>-0.05019776038824905</v>
+        <v>0.06245275709011437</v>
       </c>
       <c r="D61">
-        <v>0.1007609511741898</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09213050484999913</v>
+      </c>
+      <c r="E61">
+        <v>-2.746700365543037e-05</v>
+      </c>
+      <c r="F61">
+        <v>-0.02033396151062501</v>
+      </c>
+      <c r="G61">
+        <v>0.005244804963154647</v>
+      </c>
+      <c r="H61">
+        <v>-0.03875890124471065</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01658618059637435</v>
+        <v>0.01464559663504366</v>
       </c>
       <c r="C63">
-        <v>-0.02078516864645017</v>
+        <v>0.03229511338016586</v>
       </c>
       <c r="D63">
-        <v>0.06080101497861169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06750611647404713</v>
+      </c>
+      <c r="E63">
+        <v>0.02671292654338701</v>
+      </c>
+      <c r="F63">
+        <v>0.0189126558461071</v>
+      </c>
+      <c r="G63">
+        <v>0.007616455994176252</v>
+      </c>
+      <c r="H63">
+        <v>-0.05646875118523818</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05750987528474742</v>
+        <v>0.0519479528449002</v>
       </c>
       <c r="C64">
-        <v>-0.06620152572475141</v>
+        <v>0.08216688107613192</v>
       </c>
       <c r="D64">
-        <v>0.06064422584038377</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05613444972212799</v>
+      </c>
+      <c r="E64">
+        <v>0.0204030981684083</v>
+      </c>
+      <c r="F64">
+        <v>-0.0163375396964884</v>
+      </c>
+      <c r="G64">
+        <v>-0.046057921875032</v>
+      </c>
+      <c r="H64">
+        <v>-0.04935789267636944</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04782503577454091</v>
+        <v>0.04459758310025497</v>
       </c>
       <c r="C65">
-        <v>-0.01016115778747791</v>
+        <v>0.02792618667135139</v>
       </c>
       <c r="D65">
-        <v>0.1204357547309034</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1199112063958893</v>
+      </c>
+      <c r="E65">
+        <v>0.001256564267807879</v>
+      </c>
+      <c r="F65">
+        <v>0.01724562482897302</v>
+      </c>
+      <c r="G65">
+        <v>0.02286094159457103</v>
+      </c>
+      <c r="H65">
+        <v>-0.01505162269926476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04225184261017319</v>
+        <v>0.03855841479721873</v>
       </c>
       <c r="C66">
-        <v>-0.05553761459488593</v>
+        <v>0.07684600807758615</v>
       </c>
       <c r="D66">
-        <v>0.1101321102548516</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1309265287538273</v>
+      </c>
+      <c r="E66">
+        <v>0.01104276567380278</v>
+      </c>
+      <c r="F66">
+        <v>-0.01525422460840265</v>
+      </c>
+      <c r="G66">
+        <v>0.02170286473429579</v>
+      </c>
+      <c r="H66">
+        <v>-0.04781377944351474</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03954592745593703</v>
+        <v>0.03760557609894227</v>
       </c>
       <c r="C67">
-        <v>-0.01947132801055281</v>
+        <v>0.02586524574755095</v>
       </c>
       <c r="D67">
-        <v>0.02709510807229487</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02352948672168879</v>
+      </c>
+      <c r="E67">
+        <v>0.01212113063424</v>
+      </c>
+      <c r="F67">
+        <v>-0.005082715782797543</v>
+      </c>
+      <c r="G67">
+        <v>0.03703220151356943</v>
+      </c>
+      <c r="H67">
+        <v>-0.02349318576760985</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1651269110114415</v>
+        <v>0.1983138277552529</v>
       </c>
       <c r="C68">
-        <v>0.2300955714072986</v>
+        <v>-0.1943895277970572</v>
       </c>
       <c r="D68">
-        <v>-0.01157722024552027</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01590431377426772</v>
+      </c>
+      <c r="E68">
+        <v>0.04802708915858238</v>
+      </c>
+      <c r="F68">
+        <v>0.03367834043709934</v>
+      </c>
+      <c r="G68">
+        <v>0.005121399356496689</v>
+      </c>
+      <c r="H68">
+        <v>-0.01837854778982385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08430812437726039</v>
+        <v>0.07232898993695178</v>
       </c>
       <c r="C69">
-        <v>-0.08632876080838832</v>
+        <v>0.09725954516293821</v>
       </c>
       <c r="D69">
-        <v>0.07020756935321344</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04920613281467402</v>
+      </c>
+      <c r="E69">
+        <v>0.02111399263915708</v>
+      </c>
+      <c r="F69">
+        <v>0.007468185327839032</v>
+      </c>
+      <c r="G69">
+        <v>-0.018693887086573</v>
+      </c>
+      <c r="H69">
+        <v>0.02371725514469998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1450671958597064</v>
+        <v>0.1862188865124129</v>
       </c>
       <c r="C71">
-        <v>0.2337230716939935</v>
+        <v>-0.2069850826537805</v>
       </c>
       <c r="D71">
-        <v>0.01936653823330637</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.04117629339318225</v>
+      </c>
+      <c r="E71">
+        <v>0.05276508563159064</v>
+      </c>
+      <c r="F71">
+        <v>0.03418818931767102</v>
+      </c>
+      <c r="G71">
+        <v>-0.008232325310107438</v>
+      </c>
+      <c r="H71">
+        <v>0.0162846813758588</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09854997168791377</v>
+        <v>0.09820882113301109</v>
       </c>
       <c r="C72">
-        <v>-0.04336700926435372</v>
+        <v>0.07377226046116733</v>
       </c>
       <c r="D72">
-        <v>0.08838956135610868</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0957569344863239</v>
+      </c>
+      <c r="E72">
+        <v>-0.03558260086898253</v>
+      </c>
+      <c r="F72">
+        <v>0.03574327033859023</v>
+      </c>
+      <c r="G72">
+        <v>-0.02996218281197408</v>
+      </c>
+      <c r="H72">
+        <v>-0.0523091249210722</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2602679913000769</v>
+        <v>0.2389493642032404</v>
       </c>
       <c r="C73">
-        <v>-0.02623152079818425</v>
+        <v>0.08963141419982158</v>
       </c>
       <c r="D73">
-        <v>0.3197371693915446</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1593205386206779</v>
+      </c>
+      <c r="E73">
+        <v>-0.6652930222794206</v>
+      </c>
+      <c r="F73">
+        <v>-0.01059807462763504</v>
+      </c>
+      <c r="G73">
+        <v>-0.05792300791136341</v>
+      </c>
+      <c r="H73">
+        <v>0.07533954093399282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1083216848088542</v>
+        <v>0.09701203630148213</v>
       </c>
       <c r="C74">
-        <v>-0.06946599411993698</v>
+        <v>0.09173146586790371</v>
       </c>
       <c r="D74">
-        <v>0.005482718405351079</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.003297928870340858</v>
+      </c>
+      <c r="E74">
+        <v>0.0776940806332851</v>
+      </c>
+      <c r="F74">
+        <v>0.06786965315247563</v>
+      </c>
+      <c r="G74">
+        <v>-0.06128526262529651</v>
+      </c>
+      <c r="H74">
+        <v>0.01223894724792012</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2463946697343921</v>
+        <v>0.2243556374599246</v>
       </c>
       <c r="C75">
-        <v>-0.1320583416874623</v>
+        <v>0.1692178542773392</v>
       </c>
       <c r="D75">
-        <v>-0.07122042714662706</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09534410952901848</v>
+      </c>
+      <c r="E75">
+        <v>0.1067042713362236</v>
+      </c>
+      <c r="F75">
+        <v>-0.01307855156489273</v>
+      </c>
+      <c r="G75">
+        <v>-0.04964112860795601</v>
+      </c>
+      <c r="H75">
+        <v>0.1125965490161459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1397473667274329</v>
+        <v>0.1245735364205712</v>
       </c>
       <c r="C76">
-        <v>-0.09063966267894846</v>
+        <v>0.1151071384984637</v>
       </c>
       <c r="D76">
-        <v>-0.01433847140492051</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01103388384010902</v>
+      </c>
+      <c r="E76">
+        <v>0.1193589624231163</v>
+      </c>
+      <c r="F76">
+        <v>0.02025686428562622</v>
+      </c>
+      <c r="G76">
+        <v>-0.03619609911292419</v>
+      </c>
+      <c r="H76">
+        <v>0.004068787241072997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0527205741788204</v>
+        <v>0.05677177421121626</v>
       </c>
       <c r="C77">
-        <v>-0.07072305839120099</v>
+        <v>0.07330554109598909</v>
       </c>
       <c r="D77">
-        <v>0.03790773762286567</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1288349934015111</v>
+      </c>
+      <c r="E77">
+        <v>0.236210560519321</v>
+      </c>
+      <c r="F77">
+        <v>-0.2773267807496989</v>
+      </c>
+      <c r="G77">
+        <v>0.2607195771604279</v>
+      </c>
+      <c r="H77">
+        <v>0.7574717966679514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03950444398193415</v>
+        <v>0.04255299613870594</v>
       </c>
       <c r="C78">
-        <v>-0.05493516100936766</v>
+        <v>0.06829518897967579</v>
       </c>
       <c r="D78">
-        <v>0.1227533146734692</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1358875793012949</v>
+      </c>
+      <c r="E78">
+        <v>0.01075706453647865</v>
+      </c>
+      <c r="F78">
+        <v>0.006811518586256085</v>
+      </c>
+      <c r="G78">
+        <v>-0.007028626044846074</v>
+      </c>
+      <c r="H78">
+        <v>0.009656513003407363</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02683341004917161</v>
+        <v>0.04573729491544784</v>
       </c>
       <c r="C79">
-        <v>-0.08037171240628647</v>
+        <v>0.09538567988257583</v>
       </c>
       <c r="D79">
-        <v>-0.06748144425578907</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01978178510077149</v>
+      </c>
+      <c r="E79">
+        <v>0.2222622910814782</v>
+      </c>
+      <c r="F79">
+        <v>0.147643747560766</v>
+      </c>
+      <c r="G79">
+        <v>-0.7850249493504122</v>
+      </c>
+      <c r="H79">
+        <v>0.05533989790829373</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0314713749109666</v>
+        <v>0.02446671116933381</v>
       </c>
       <c r="C80">
-        <v>-0.03629959489777131</v>
+        <v>0.04605890148621261</v>
       </c>
       <c r="D80">
-        <v>0.01275686352573166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02355024308766455</v>
+      </c>
+      <c r="E80">
+        <v>0.02287582335294848</v>
+      </c>
+      <c r="F80">
+        <v>0.004481962440221853</v>
+      </c>
+      <c r="G80">
+        <v>0.03254101020975651</v>
+      </c>
+      <c r="H80">
+        <v>-0.05700578232079079</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1434601199912096</v>
+        <v>0.1258272118905908</v>
       </c>
       <c r="C81">
-        <v>-0.09927120014806882</v>
+        <v>0.1207800094953422</v>
       </c>
       <c r="D81">
-        <v>-0.06174774695620883</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07153548137706324</v>
+      </c>
+      <c r="E81">
+        <v>0.1120215225580682</v>
+      </c>
+      <c r="F81">
+        <v>0.0243747010105222</v>
+      </c>
+      <c r="G81">
+        <v>-0.03780333581311496</v>
+      </c>
+      <c r="H81">
+        <v>0.0210697935302547</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3114961740977842</v>
+        <v>0.2539912136999961</v>
       </c>
       <c r="C82">
-        <v>-0.2630040849113347</v>
+        <v>0.2659826887685117</v>
       </c>
       <c r="D82">
-        <v>-0.229447103743238</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2415927888297648</v>
+      </c>
+      <c r="E82">
+        <v>-0.01754888781511928</v>
+      </c>
+      <c r="F82">
+        <v>0.04416132868117994</v>
+      </c>
+      <c r="G82">
+        <v>0.04353112981737456</v>
+      </c>
+      <c r="H82">
+        <v>0.1731171231135309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02869236226840466</v>
+        <v>0.02051457035306637</v>
       </c>
       <c r="C83">
-        <v>-0.04995659798411863</v>
+        <v>0.05188093191549042</v>
       </c>
       <c r="D83">
-        <v>0.04329848657334876</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04419177651537809</v>
+      </c>
+      <c r="E83">
+        <v>0.01815927093436027</v>
+      </c>
+      <c r="F83">
+        <v>-0.05379601896466752</v>
+      </c>
+      <c r="G83">
+        <v>0.05128140018296141</v>
+      </c>
+      <c r="H83">
+        <v>0.08948110444241031</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0007297609719838877</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004459984178004779</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01885332295997747</v>
+      </c>
+      <c r="E84">
+        <v>0.01892432097490094</v>
+      </c>
+      <c r="F84">
+        <v>0.01034807786527791</v>
+      </c>
+      <c r="G84">
+        <v>0.005576926745947183</v>
+      </c>
+      <c r="H84">
+        <v>-0.01958887526780886</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1769175353731821</v>
+        <v>0.1544286676496377</v>
       </c>
       <c r="C85">
-        <v>-0.1034622893653487</v>
+        <v>0.1387478943671391</v>
       </c>
       <c r="D85">
-        <v>-0.03106020377587158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05816483124816726</v>
+      </c>
+      <c r="E85">
+        <v>0.05397840159147808</v>
+      </c>
+      <c r="F85">
+        <v>0.02636338902678633</v>
+      </c>
+      <c r="G85">
+        <v>-0.1026311658514112</v>
+      </c>
+      <c r="H85">
+        <v>-0.01758786869296573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01362152900900292</v>
+        <v>0.01937276652246265</v>
       </c>
       <c r="C86">
-        <v>-0.03260585682147431</v>
+        <v>0.02358987679870897</v>
       </c>
       <c r="D86">
-        <v>0.127150286847133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1187823949858351</v>
+      </c>
+      <c r="E86">
+        <v>0.004885717322389984</v>
+      </c>
+      <c r="F86">
+        <v>-0.02061558516905705</v>
+      </c>
+      <c r="G86">
+        <v>0.02345278302555411</v>
+      </c>
+      <c r="H86">
+        <v>0.0682706902693599</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02779428451988273</v>
+        <v>0.03547062873747403</v>
       </c>
       <c r="C87">
-        <v>-0.008877236946557863</v>
+        <v>0.02582367746338463</v>
       </c>
       <c r="D87">
-        <v>0.09823247026669847</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1390784829559334</v>
+      </c>
+      <c r="E87">
+        <v>0.07422778553092445</v>
+      </c>
+      <c r="F87">
+        <v>-0.00373876853412689</v>
+      </c>
+      <c r="G87">
+        <v>0.02137052373692955</v>
+      </c>
+      <c r="H87">
+        <v>-0.02762835064531357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07579176961499609</v>
+        <v>0.0686182495666951</v>
       </c>
       <c r="C88">
-        <v>-0.03483336870605479</v>
+        <v>0.05362708674771568</v>
       </c>
       <c r="D88">
-        <v>0.05172210217752426</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02871422768217237</v>
+      </c>
+      <c r="E88">
+        <v>-0.002254659410416296</v>
+      </c>
+      <c r="F88">
+        <v>0.02074498204222796</v>
+      </c>
+      <c r="G88">
+        <v>-0.008032529356177601</v>
+      </c>
+      <c r="H88">
+        <v>-0.03566235871353269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2255797380253428</v>
+        <v>0.2850833499734994</v>
       </c>
       <c r="C89">
-        <v>0.401026269161635</v>
+        <v>-0.350679372853748</v>
       </c>
       <c r="D89">
-        <v>-0.04429883794832078</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0005778804758165137</v>
+      </c>
+      <c r="E89">
+        <v>0.046585355463542</v>
+      </c>
+      <c r="F89">
+        <v>-0.03714887953645496</v>
+      </c>
+      <c r="G89">
+        <v>-0.03587993229185654</v>
+      </c>
+      <c r="H89">
+        <v>-0.06126383689826015</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1998619377334257</v>
+        <v>0.242321500347612</v>
       </c>
       <c r="C90">
-        <v>0.2964027972092153</v>
+        <v>-0.248371564916602</v>
       </c>
       <c r="D90">
-        <v>-0.009172615492143267</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01984911191665169</v>
+      </c>
+      <c r="E90">
+        <v>0.05118342893760964</v>
+      </c>
+      <c r="F90">
+        <v>0.002667336570523604</v>
+      </c>
+      <c r="G90">
+        <v>0.06324532511611891</v>
+      </c>
+      <c r="H90">
+        <v>-0.01348782449027009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1835472463375415</v>
+        <v>0.1562190090696365</v>
       </c>
       <c r="C91">
-        <v>-0.1438013309121453</v>
+        <v>0.158973805128578</v>
       </c>
       <c r="D91">
-        <v>-0.08181679370091655</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08434484506338871</v>
+      </c>
+      <c r="E91">
+        <v>0.1089751254072103</v>
+      </c>
+      <c r="F91">
+        <v>0.02185247356527862</v>
+      </c>
+      <c r="G91">
+        <v>-0.0945759925572273</v>
+      </c>
+      <c r="H91">
+        <v>0.06306546180523803</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1753813120119516</v>
+        <v>0.2270516166155875</v>
       </c>
       <c r="C92">
-        <v>0.2899918494718012</v>
+        <v>-0.2691979689076503</v>
       </c>
       <c r="D92">
-        <v>0.008229685076871112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03106845862488647</v>
+      </c>
+      <c r="E92">
+        <v>0.09525694822316519</v>
+      </c>
+      <c r="F92">
+        <v>-0.00242861087511855</v>
+      </c>
+      <c r="G92">
+        <v>0.02953834501064796</v>
+      </c>
+      <c r="H92">
+        <v>0.01270896211923838</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2246203931671456</v>
+        <v>0.2646777232521354</v>
       </c>
       <c r="C93">
-        <v>0.3101530440171533</v>
+        <v>-0.2615390836012201</v>
       </c>
       <c r="D93">
-        <v>0.004574651218932909</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0006654117057340366</v>
+      </c>
+      <c r="E93">
+        <v>0.005267078239797367</v>
+      </c>
+      <c r="F93">
+        <v>0.01573677699753561</v>
+      </c>
+      <c r="G93">
+        <v>-0.009210698020601996</v>
+      </c>
+      <c r="H93">
+        <v>-0.02025159512981196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3943629688055881</v>
+        <v>0.3356269144647648</v>
       </c>
       <c r="C94">
-        <v>-0.221439575631506</v>
+        <v>0.2671944493699638</v>
       </c>
       <c r="D94">
-        <v>-0.4414699690097741</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4242811271586477</v>
+      </c>
+      <c r="E94">
+        <v>0.08717415846360407</v>
+      </c>
+      <c r="F94">
+        <v>0.008652264212313698</v>
+      </c>
+      <c r="G94">
+        <v>0.3807852729626253</v>
+      </c>
+      <c r="H94">
+        <v>-0.3631891658266679</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07528599785949015</v>
+        <v>0.06665223642832815</v>
       </c>
       <c r="C95">
-        <v>-0.06190875965508808</v>
+        <v>0.06683907670110117</v>
       </c>
       <c r="D95">
-        <v>0.09583641347496269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07219013518662348</v>
+      </c>
+      <c r="E95">
+        <v>0.03413701840702911</v>
+      </c>
+      <c r="F95">
+        <v>-0.9037252408322629</v>
+      </c>
+      <c r="G95">
+        <v>-0.1743762481844285</v>
+      </c>
+      <c r="H95">
+        <v>-0.2443089535903527</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1691040361974926</v>
+        <v>0.1617135819478721</v>
       </c>
       <c r="C98">
-        <v>-0.02584031518572185</v>
+        <v>0.06730032617987411</v>
       </c>
       <c r="D98">
-        <v>0.1790937100623177</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1231564110974698</v>
+      </c>
+      <c r="E98">
+        <v>-0.315357055580833</v>
+      </c>
+      <c r="F98">
+        <v>0.03756267086483481</v>
+      </c>
+      <c r="G98">
+        <v>-0.05811658465827687</v>
+      </c>
+      <c r="H98">
+        <v>0.0719658937483318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003672060722128282</v>
+        <v>0.004903757706472515</v>
       </c>
       <c r="C101">
-        <v>-0.01525530148594865</v>
+        <v>0.02138620855154418</v>
       </c>
       <c r="D101">
-        <v>0.06888735667924129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0879860604909842</v>
+      </c>
+      <c r="E101">
+        <v>0.02929733397511758</v>
+      </c>
+      <c r="F101">
+        <v>0.01339875219645443</v>
+      </c>
+      <c r="G101">
+        <v>0.005055040753558706</v>
+      </c>
+      <c r="H101">
+        <v>-0.08978159435795768</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1273931638972061</v>
+        <v>0.1043482495170225</v>
       </c>
       <c r="C102">
-        <v>-0.1153200671131867</v>
+        <v>0.1209606872231106</v>
       </c>
       <c r="D102">
-        <v>-0.04734689144278888</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06446232338300002</v>
+      </c>
+      <c r="E102">
+        <v>0.02532526380893822</v>
+      </c>
+      <c r="F102">
+        <v>-0.0249562175716007</v>
+      </c>
+      <c r="G102">
+        <v>-0.01950662951772476</v>
+      </c>
+      <c r="H102">
+        <v>0.0574285729066549</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
